--- a/시장분석용_정보/시장분석용_4313032500.xlsx
+++ b/시장분석용_정보/시장분석용_4313032500.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
-  <si>
-    <t>중복체크</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
   <si>
     <t>sim_cd</t>
   </si>
@@ -158,84 +155,6 @@
   </si>
   <si>
     <t>IC_1099_RT</t>
-  </si>
-  <si>
-    <t>LIFE_01_RT</t>
-  </si>
-  <si>
-    <t>LIFE_02_RT</t>
-  </si>
-  <si>
-    <t>LIFE_03_RT</t>
-  </si>
-  <si>
-    <t>LIFE_04_RT</t>
-  </si>
-  <si>
-    <t>LIFE_05_RT</t>
-  </si>
-  <si>
-    <t>LIFE_06_RT</t>
-  </si>
-  <si>
-    <t>FTJB_HUWF_RT</t>
-  </si>
-  <si>
-    <t>STUD_RT</t>
-  </si>
-  <si>
-    <t>SCTY_EAR_H_RT</t>
-  </si>
-  <si>
-    <t>GDS_01_RT</t>
-  </si>
-  <si>
-    <t>GDS_02_RT</t>
-  </si>
-  <si>
-    <t>GDS_03_RT</t>
-  </si>
-  <si>
-    <t>REVISIT_RT</t>
-  </si>
-  <si>
-    <t>FREQ_RT</t>
-  </si>
-  <si>
-    <t>202106 3348200267</t>
-  </si>
-  <si>
-    <t>202107 3348200267</t>
-  </si>
-  <si>
-    <t>202108 3348200267</t>
-  </si>
-  <si>
-    <t>202109 3348200267</t>
-  </si>
-  <si>
-    <t>202110 3348200267</t>
-  </si>
-  <si>
-    <t>202111 3348200267</t>
-  </si>
-  <si>
-    <t>202112 3348200267</t>
-  </si>
-  <si>
-    <t>202201 3348200267</t>
-  </si>
-  <si>
-    <t>202202 3348200267</t>
-  </si>
-  <si>
-    <t>202203 3348200267</t>
-  </si>
-  <si>
-    <t>202204 3348200267</t>
-  </si>
-  <si>
-    <t>202205 3348200267</t>
   </si>
   <si>
     <t>JDQ4MTYyMiM1MSMkMSMkOCMkOTkkMzgxMzUxIzExIyQxIyQ3IyQ2MiQyNjEwMDIjNTEjJDEjJDIjJDgz</t>
@@ -608,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:AV13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,133 +675,88 @@
       <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>24179</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>202106</v>
       </c>
       <c r="E2">
-        <v>202106</v>
+        <v>2021</v>
       </c>
       <c r="F2">
-        <v>2021</v>
-      </c>
-      <c r="G2">
         <v>3348200267</v>
       </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
       <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>4313032500</v>
       </c>
       <c r="J2">
-        <v>4313032500</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2">
+        <v>13430930</v>
       </c>
       <c r="M2">
-        <v>13430930</v>
+        <v>271</v>
       </c>
       <c r="N2">
-        <v>271</v>
+        <v>50144</v>
       </c>
       <c r="O2">
-        <v>50144</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>30.75</v>
       </c>
       <c r="S2">
-        <v>30.75</v>
+        <v>2.19</v>
       </c>
       <c r="T2">
-        <v>2.19</v>
+        <v>1.79</v>
       </c>
       <c r="U2">
-        <v>1.79</v>
+        <v>60.06</v>
       </c>
       <c r="V2">
-        <v>60.06</v>
+        <v>5.2</v>
       </c>
       <c r="W2">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>15.54</v>
       </c>
       <c r="Y2">
-        <v>15.54</v>
+        <v>25.43</v>
       </c>
       <c r="Z2">
-        <v>25.43</v>
+        <v>59.03</v>
       </c>
       <c r="AA2">
-        <v>59.03</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -894,186 +768,141 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>4.56</v>
+      </c>
+      <c r="AH2">
+        <v>6.88</v>
+      </c>
+      <c r="AI2">
+        <v>14.55</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>64.73</v>
+      </c>
+      <c r="AL2">
+        <v>6.04</v>
+      </c>
+      <c r="AM2">
+        <v>1.98</v>
+      </c>
+      <c r="AN2">
+        <v>1.06</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
         <v>0.2</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>4.56</v>
-      </c>
-      <c r="AI2">
-        <v>6.88</v>
-      </c>
-      <c r="AJ2">
-        <v>14.55</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>64.73</v>
-      </c>
-      <c r="AM2">
-        <v>6.04</v>
-      </c>
-      <c r="AN2">
-        <v>1.98</v>
-      </c>
-      <c r="AO2">
-        <v>1.06</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
       <c r="AQ2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="AS2">
-        <v>4.84</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="AT2">
-        <v>84.79000000000001</v>
+        <v>5.22</v>
       </c>
       <c r="AU2">
-        <v>5.22</v>
+        <v>3.34</v>
       </c>
       <c r="AV2">
-        <v>3.34</v>
-      </c>
-      <c r="AW2">
         <v>1.61</v>
       </c>
-      <c r="AX2">
-        <v>18.5</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>1.23</v>
-      </c>
-      <c r="BA2">
-        <v>59.42</v>
-      </c>
-      <c r="BB2">
-        <v>15.51</v>
-      </c>
-      <c r="BC2">
-        <v>5.35</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0.2</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="BH2">
-        <v>20.84</v>
-      </c>
-      <c r="BI2">
-        <v>31.33</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>44</v>
-      </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:48">
       <c r="A3" s="1">
         <v>25550</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>202107</v>
       </c>
       <c r="E3">
-        <v>202107</v>
+        <v>2021</v>
       </c>
       <c r="F3">
-        <v>2021</v>
-      </c>
-      <c r="G3">
         <v>3348200267</v>
       </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
       <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>4313032500</v>
       </c>
       <c r="J3">
-        <v>4313032500</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3">
+        <v>80609434</v>
       </c>
       <c r="M3">
-        <v>80609434</v>
+        <v>952</v>
       </c>
       <c r="N3">
-        <v>952</v>
+        <v>83651</v>
       </c>
       <c r="O3">
-        <v>83651</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>23.93</v>
       </c>
       <c r="S3">
-        <v>23.93</v>
+        <v>4.52</v>
       </c>
       <c r="T3">
-        <v>4.52</v>
+        <v>4.26</v>
       </c>
       <c r="U3">
-        <v>4.26</v>
+        <v>6.8</v>
       </c>
       <c r="V3">
-        <v>6.8</v>
+        <v>60.49</v>
       </c>
       <c r="W3">
-        <v>60.49</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>5.44</v>
       </c>
       <c r="Y3">
-        <v>5.44</v>
+        <v>42.25</v>
       </c>
       <c r="Z3">
-        <v>42.25</v>
+        <v>52.31</v>
       </c>
       <c r="AA3">
-        <v>52.31</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1085,186 +914,141 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AF3">
-        <v>9.1</v>
+        <v>0.02</v>
       </c>
       <c r="AG3">
-        <v>0.02</v>
+        <v>8.81</v>
       </c>
       <c r="AH3">
-        <v>8.81</v>
+        <v>24.48</v>
       </c>
       <c r="AI3">
-        <v>24.48</v>
+        <v>4.03</v>
       </c>
       <c r="AJ3">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="AL3">
-        <v>4.04</v>
+        <v>39.73</v>
       </c>
       <c r="AM3">
-        <v>39.73</v>
+        <v>1.62</v>
       </c>
       <c r="AN3">
-        <v>1.62</v>
+        <v>8.17</v>
       </c>
       <c r="AO3">
-        <v>8.17</v>
+        <v>1.93</v>
       </c>
       <c r="AP3">
-        <v>1.93</v>
+        <v>1.28</v>
       </c>
       <c r="AQ3">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="AS3">
-        <v>10.9</v>
+        <v>72.3</v>
       </c>
       <c r="AT3">
-        <v>72.3</v>
+        <v>10.88</v>
       </c>
       <c r="AU3">
-        <v>10.88</v>
+        <v>1.64</v>
       </c>
       <c r="AV3">
-        <v>1.64</v>
-      </c>
-      <c r="AW3">
         <v>1.08</v>
       </c>
-      <c r="AX3">
-        <v>13.9</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>40.2</v>
-      </c>
-      <c r="BA3">
-        <v>10.86</v>
-      </c>
-      <c r="BB3">
-        <v>28.05</v>
-      </c>
-      <c r="BC3">
-        <v>6.98</v>
-      </c>
-      <c r="BD3">
-        <v>1.74</v>
-      </c>
-      <c r="BE3">
-        <v>8.91</v>
-      </c>
-      <c r="BF3">
-        <v>0.13</v>
-      </c>
-      <c r="BG3">
-        <v>3.37</v>
-      </c>
-      <c r="BH3">
-        <v>63.42</v>
-      </c>
-      <c r="BI3">
-        <v>64.09</v>
-      </c>
-      <c r="BJ3">
-        <v>16.4</v>
-      </c>
-      <c r="BK3">
-        <v>74.5</v>
-      </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:48">
       <c r="A4" s="1">
         <v>26925</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>202108</v>
       </c>
       <c r="E4">
-        <v>202108</v>
+        <v>2021</v>
       </c>
       <c r="F4">
-        <v>2021</v>
-      </c>
-      <c r="G4">
         <v>3348200267</v>
       </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
       <c r="H4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>4313032500</v>
       </c>
       <c r="J4">
-        <v>4313032500</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4">
+        <v>120014747</v>
       </c>
       <c r="M4">
-        <v>120014747</v>
+        <v>1005</v>
       </c>
       <c r="N4">
-        <v>1005</v>
+        <v>121757</v>
       </c>
       <c r="O4">
-        <v>121757</v>
+        <v>94.7</v>
       </c>
       <c r="P4">
-        <v>94.7</v>
+        <v>5.3</v>
       </c>
       <c r="Q4">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>16.82</v>
       </c>
       <c r="S4">
-        <v>16.82</v>
+        <v>15.76</v>
       </c>
       <c r="T4">
-        <v>15.76</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="U4">
-        <v>8.359999999999999</v>
+        <v>4.53</v>
       </c>
       <c r="V4">
-        <v>4.53</v>
+        <v>54.53</v>
       </c>
       <c r="W4">
-        <v>54.53</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="Y4">
-        <v>20.7</v>
+        <v>41.95</v>
       </c>
       <c r="Z4">
-        <v>41.95</v>
+        <v>37.36</v>
       </c>
       <c r="AA4">
-        <v>37.36</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1279,183 +1063,138 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AG4">
-        <v>0.35</v>
+        <v>2.59</v>
       </c>
       <c r="AH4">
-        <v>2.59</v>
+        <v>23.33</v>
       </c>
       <c r="AI4">
-        <v>23.33</v>
+        <v>21.56</v>
       </c>
       <c r="AJ4">
-        <v>21.56</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AK4">
-        <v>0.07000000000000001</v>
+        <v>4.93</v>
       </c>
       <c r="AL4">
-        <v>4.93</v>
+        <v>17.95</v>
       </c>
       <c r="AM4">
-        <v>17.95</v>
+        <v>12.26</v>
       </c>
       <c r="AN4">
-        <v>12.26</v>
+        <v>16.96</v>
       </c>
       <c r="AO4">
-        <v>16.96</v>
+        <v>0.23</v>
       </c>
       <c r="AP4">
-        <v>0.23</v>
+        <v>4.67</v>
       </c>
       <c r="AQ4">
-        <v>4.67</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="AS4">
-        <v>4.97</v>
+        <v>52.08</v>
       </c>
       <c r="AT4">
-        <v>52.08</v>
+        <v>19.38</v>
       </c>
       <c r="AU4">
-        <v>19.38</v>
+        <v>6.8</v>
       </c>
       <c r="AV4">
-        <v>6.8</v>
-      </c>
-      <c r="AW4">
         <v>11.86</v>
       </c>
-      <c r="AX4">
-        <v>8.02</v>
-      </c>
-      <c r="AY4">
-        <v>2.36</v>
-      </c>
-      <c r="AZ4">
-        <v>3.45</v>
-      </c>
-      <c r="BA4">
-        <v>16.82</v>
-      </c>
-      <c r="BB4">
-        <v>54</v>
-      </c>
-      <c r="BC4">
-        <v>15.35</v>
-      </c>
-      <c r="BD4">
-        <v>0.05</v>
-      </c>
-      <c r="BE4">
-        <v>0.01</v>
-      </c>
-      <c r="BF4">
-        <v>2.3</v>
-      </c>
-      <c r="BG4">
-        <v>12.62</v>
-      </c>
-      <c r="BH4">
-        <v>65.81999999999999</v>
-      </c>
-      <c r="BI4">
-        <v>67.91</v>
-      </c>
-      <c r="BJ4">
-        <v>43.9</v>
-      </c>
-      <c r="BK4">
-        <v>68.2</v>
-      </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:48">
       <c r="A5" s="1">
         <v>28295</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>202109</v>
       </c>
       <c r="E5">
-        <v>202109</v>
+        <v>2021</v>
       </c>
       <c r="F5">
-        <v>2021</v>
-      </c>
-      <c r="G5">
         <v>3348200267</v>
       </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
       <c r="H5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>4313032500</v>
       </c>
       <c r="J5">
-        <v>4313032500</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5">
+        <v>145225494</v>
       </c>
       <c r="M5">
-        <v>145225494</v>
+        <v>738</v>
       </c>
       <c r="N5">
-        <v>738</v>
+        <v>194520</v>
       </c>
       <c r="O5">
-        <v>194520</v>
+        <v>100</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>7.61</v>
       </c>
       <c r="S5">
-        <v>7.61</v>
+        <v>38.12</v>
       </c>
       <c r="T5">
-        <v>38.12</v>
+        <v>31.82</v>
       </c>
       <c r="U5">
-        <v>31.82</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="V5">
-        <v>9.289999999999999</v>
+        <v>13.16</v>
       </c>
       <c r="W5">
-        <v>13.16</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>8.44</v>
       </c>
       <c r="Y5">
-        <v>8.44</v>
+        <v>54.82</v>
       </c>
       <c r="Z5">
-        <v>54.82</v>
+        <v>36.74</v>
       </c>
       <c r="AA5">
-        <v>36.74</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1470,183 +1209,138 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AG5">
-        <v>0.8100000000000001</v>
+        <v>17.02</v>
       </c>
       <c r="AH5">
-        <v>17.02</v>
+        <v>13.27</v>
       </c>
       <c r="AI5">
-        <v>13.27</v>
+        <v>14.09</v>
       </c>
       <c r="AJ5">
-        <v>14.09</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="AL5">
-        <v>4.12</v>
+        <v>30.28</v>
       </c>
       <c r="AM5">
-        <v>30.28</v>
+        <v>7.98</v>
       </c>
       <c r="AN5">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AO5">
-        <v>12.43</v>
+        <v>0.03</v>
       </c>
       <c r="AP5">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>18.68</v>
       </c>
       <c r="AS5">
-        <v>18.68</v>
+        <v>61.39</v>
       </c>
       <c r="AT5">
-        <v>61.39</v>
+        <v>9.35</v>
       </c>
       <c r="AU5">
-        <v>9.35</v>
+        <v>5.82</v>
       </c>
       <c r="AV5">
-        <v>5.82</v>
-      </c>
-      <c r="AW5">
         <v>4.73</v>
       </c>
-      <c r="AX5">
-        <v>4.91</v>
-      </c>
-      <c r="AY5">
-        <v>0.59</v>
-      </c>
-      <c r="AZ5">
-        <v>27.04</v>
-      </c>
-      <c r="BA5">
-        <v>31</v>
-      </c>
-      <c r="BB5">
-        <v>15.59</v>
-      </c>
-      <c r="BC5">
-        <v>20.85</v>
-      </c>
-      <c r="BD5">
-        <v>17.45</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>14.85</v>
-      </c>
-      <c r="BH5">
-        <v>29.34</v>
-      </c>
-      <c r="BI5">
-        <v>54.09</v>
-      </c>
-      <c r="BJ5">
-        <v>40</v>
-      </c>
-      <c r="BK5">
-        <v>68.90000000000001</v>
-      </c>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:48">
       <c r="A6" s="1">
         <v>29675</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>202110</v>
       </c>
       <c r="E6">
-        <v>202110</v>
+        <v>2021</v>
       </c>
       <c r="F6">
-        <v>2021</v>
-      </c>
-      <c r="G6">
         <v>3348200267</v>
       </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
       <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>4313032500</v>
       </c>
       <c r="J6">
-        <v>4313032500</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6">
+        <v>191583816</v>
       </c>
       <c r="M6">
-        <v>191583816</v>
+        <v>742</v>
       </c>
       <c r="N6">
-        <v>742</v>
+        <v>265526</v>
       </c>
       <c r="O6">
-        <v>265526</v>
+        <v>99.81</v>
       </c>
       <c r="P6">
-        <v>99.81</v>
+        <v>0.19</v>
       </c>
       <c r="Q6">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>10.43</v>
       </c>
       <c r="S6">
-        <v>10.43</v>
+        <v>24.48</v>
       </c>
       <c r="T6">
-        <v>24.48</v>
+        <v>3.66</v>
       </c>
       <c r="U6">
-        <v>3.66</v>
+        <v>30.96</v>
       </c>
       <c r="V6">
-        <v>30.96</v>
+        <v>30.42</v>
       </c>
       <c r="W6">
-        <v>30.42</v>
+        <v>0.05</v>
       </c>
       <c r="X6">
-        <v>0.05</v>
+        <v>3.2</v>
       </c>
       <c r="Y6">
-        <v>3.2</v>
+        <v>68.83</v>
       </c>
       <c r="Z6">
-        <v>68.83</v>
+        <v>27.96</v>
       </c>
       <c r="AA6">
-        <v>27.96</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1658,186 +1352,141 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AF6">
-        <v>0.53</v>
+        <v>0.11</v>
       </c>
       <c r="AG6">
-        <v>0.11</v>
+        <v>7.52</v>
       </c>
       <c r="AH6">
-        <v>7.52</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AI6">
-        <v>8.279999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="AJ6">
-        <v>3.98</v>
+        <v>2.69</v>
       </c>
       <c r="AK6">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>36.17</v>
       </c>
       <c r="AM6">
-        <v>36.17</v>
+        <v>24.43</v>
       </c>
       <c r="AN6">
-        <v>24.43</v>
+        <v>16.29</v>
       </c>
       <c r="AO6">
-        <v>16.29</v>
+        <v>0.24</v>
       </c>
       <c r="AP6">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="AQ6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="AS6">
-        <v>5.01</v>
+        <v>31.74</v>
       </c>
       <c r="AT6">
-        <v>31.74</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AU6">
-        <v>9.140000000000001</v>
+        <v>52.43</v>
       </c>
       <c r="AV6">
-        <v>52.43</v>
-      </c>
-      <c r="AW6">
         <v>1.43</v>
       </c>
-      <c r="AX6">
-        <v>30.11</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>1.1</v>
-      </c>
-      <c r="BA6">
-        <v>16.96</v>
-      </c>
-      <c r="BB6">
-        <v>34.86</v>
-      </c>
-      <c r="BC6">
-        <v>16.97</v>
-      </c>
-      <c r="BD6">
-        <v>5.76</v>
-      </c>
-      <c r="BE6">
-        <v>3.04</v>
-      </c>
-      <c r="BF6">
-        <v>0.23</v>
-      </c>
-      <c r="BG6">
-        <v>7.16</v>
-      </c>
-      <c r="BH6">
-        <v>28.41</v>
-      </c>
-      <c r="BI6">
-        <v>34.48</v>
-      </c>
-      <c r="BJ6">
-        <v>35.2</v>
-      </c>
-      <c r="BK6">
-        <v>53.7</v>
-      </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:48">
       <c r="A7" s="1">
         <v>31054</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>202111</v>
       </c>
       <c r="E7">
-        <v>202111</v>
+        <v>2021</v>
       </c>
       <c r="F7">
-        <v>2021</v>
-      </c>
-      <c r="G7">
         <v>3348200267</v>
       </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
       <c r="H7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>4313032500</v>
       </c>
       <c r="J7">
-        <v>4313032500</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7">
+        <v>120318780</v>
       </c>
       <c r="M7">
-        <v>120318780</v>
+        <v>506</v>
       </c>
       <c r="N7">
-        <v>506</v>
+        <v>240662</v>
       </c>
       <c r="O7">
-        <v>240662</v>
+        <v>100</v>
       </c>
       <c r="P7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>27.58</v>
       </c>
       <c r="S7">
-        <v>27.58</v>
+        <v>27.96</v>
       </c>
       <c r="T7">
-        <v>27.96</v>
+        <v>11.19</v>
       </c>
       <c r="U7">
-        <v>11.19</v>
+        <v>3.47</v>
       </c>
       <c r="V7">
-        <v>3.47</v>
+        <v>29.8</v>
       </c>
       <c r="W7">
-        <v>29.8</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>10.44</v>
       </c>
       <c r="Y7">
-        <v>10.44</v>
+        <v>55.02</v>
       </c>
       <c r="Z7">
-        <v>55.02</v>
+        <v>34.54</v>
       </c>
       <c r="AA7">
-        <v>34.54</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1849,186 +1498,141 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>13.42</v>
       </c>
       <c r="AF7">
-        <v>13.42</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AG7">
-        <v>8.970000000000001</v>
+        <v>20.93</v>
       </c>
       <c r="AH7">
-        <v>20.93</v>
+        <v>15.57</v>
       </c>
       <c r="AI7">
-        <v>15.57</v>
+        <v>3.54</v>
       </c>
       <c r="AJ7">
-        <v>3.54</v>
+        <v>0.02</v>
       </c>
       <c r="AK7">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="AL7">
-        <v>0.11</v>
+        <v>0.87</v>
       </c>
       <c r="AM7">
-        <v>0.87</v>
+        <v>6.12</v>
       </c>
       <c r="AN7">
-        <v>6.12</v>
+        <v>30.44</v>
       </c>
       <c r="AO7">
-        <v>30.44</v>
+        <v>0.09</v>
       </c>
       <c r="AP7">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="AS7">
-        <v>9.109999999999999</v>
+        <v>27</v>
       </c>
       <c r="AT7">
-        <v>27</v>
+        <v>34.06</v>
       </c>
       <c r="AU7">
-        <v>34.06</v>
+        <v>3.68</v>
       </c>
       <c r="AV7">
-        <v>3.68</v>
-      </c>
-      <c r="AW7">
         <v>26.06</v>
       </c>
-      <c r="AX7">
-        <v>18.15</v>
-      </c>
-      <c r="AY7">
-        <v>0.62</v>
-      </c>
-      <c r="AZ7">
-        <v>3.21</v>
-      </c>
-      <c r="BA7">
-        <v>45.42</v>
-      </c>
-      <c r="BB7">
-        <v>14.33</v>
-      </c>
-      <c r="BC7">
-        <v>18.27</v>
-      </c>
-      <c r="BD7">
-        <v>9.9</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>14.73</v>
-      </c>
-      <c r="BG7">
-        <v>6.83</v>
-      </c>
-      <c r="BH7">
-        <v>12.89</v>
-      </c>
-      <c r="BI7">
-        <v>18.4</v>
-      </c>
-      <c r="BJ7">
-        <v>33.3</v>
-      </c>
-      <c r="BK7">
-        <v>60</v>
-      </c>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:48">
       <c r="A8" s="1">
         <v>32441</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>202112</v>
       </c>
       <c r="E8">
-        <v>202112</v>
+        <v>2021</v>
       </c>
       <c r="F8">
-        <v>2021</v>
-      </c>
-      <c r="G8">
         <v>3348200267</v>
       </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
       <c r="H8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>4313032500</v>
       </c>
       <c r="J8">
-        <v>4313032500</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8">
+        <v>161332540</v>
       </c>
       <c r="M8">
-        <v>161332540</v>
+        <v>462</v>
       </c>
       <c r="N8">
-        <v>462</v>
+        <v>360261</v>
       </c>
       <c r="O8">
-        <v>360261</v>
+        <v>99.91</v>
       </c>
       <c r="P8">
-        <v>99.91</v>
+        <v>0.09</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>18.52</v>
+      </c>
+      <c r="S8">
+        <v>6.32</v>
+      </c>
+      <c r="T8">
+        <v>24.56</v>
+      </c>
+      <c r="U8">
+        <v>4.62</v>
+      </c>
+      <c r="V8">
+        <v>45.9</v>
+      </c>
+      <c r="W8">
         <v>0.09</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>18.52</v>
-      </c>
-      <c r="T8">
-        <v>6.32</v>
-      </c>
-      <c r="U8">
-        <v>24.56</v>
-      </c>
-      <c r="V8">
-        <v>4.62</v>
-      </c>
-      <c r="W8">
-        <v>45.9</v>
-      </c>
       <c r="X8">
-        <v>0.09</v>
+        <v>23.79</v>
       </c>
       <c r="Y8">
-        <v>23.79</v>
+        <v>52.56</v>
       </c>
       <c r="Z8">
-        <v>52.56</v>
+        <v>23.65</v>
       </c>
       <c r="AA8">
-        <v>23.65</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -2040,37 +1644,37 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="AF8">
-        <v>3.86</v>
+        <v>0.55</v>
       </c>
       <c r="AG8">
-        <v>0.55</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="AH8">
-        <v>8.039999999999999</v>
+        <v>27.48</v>
       </c>
       <c r="AI8">
-        <v>27.48</v>
+        <v>8.01</v>
       </c>
       <c r="AJ8">
-        <v>8.01</v>
+        <v>0.41</v>
       </c>
       <c r="AK8">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AM8">
-        <v>3.48</v>
+        <v>21.91</v>
       </c>
       <c r="AN8">
-        <v>21.91</v>
+        <v>26.26</v>
       </c>
       <c r="AO8">
-        <v>26.26</v>
+        <v>0</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -2079,147 +1683,102 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>7.81</v>
       </c>
       <c r="AS8">
-        <v>7.81</v>
+        <v>22.07</v>
       </c>
       <c r="AT8">
-        <v>22.07</v>
+        <v>48.35</v>
       </c>
       <c r="AU8">
-        <v>48.35</v>
+        <v>15.04</v>
       </c>
       <c r="AV8">
-        <v>15.04</v>
-      </c>
-      <c r="AW8">
         <v>6.72</v>
       </c>
-      <c r="AX8">
-        <v>4.72</v>
-      </c>
-      <c r="AY8">
-        <v>0.46</v>
-      </c>
-      <c r="AZ8">
-        <v>6.41</v>
-      </c>
-      <c r="BA8">
-        <v>20.18</v>
-      </c>
-      <c r="BB8">
-        <v>60.38</v>
-      </c>
-      <c r="BC8">
-        <v>7.84</v>
-      </c>
-      <c r="BD8">
-        <v>0.12</v>
-      </c>
-      <c r="BE8">
-        <v>3.25</v>
-      </c>
-      <c r="BF8">
-        <v>1.11</v>
-      </c>
-      <c r="BG8">
-        <v>6.03</v>
-      </c>
-      <c r="BH8">
-        <v>48.46</v>
-      </c>
-      <c r="BI8">
-        <v>56.18</v>
-      </c>
-      <c r="BJ8">
-        <v>36.8</v>
-      </c>
-      <c r="BK8">
-        <v>57.9</v>
-      </c>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:48">
       <c r="A9" s="1">
         <v>33827</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>202201</v>
       </c>
       <c r="E9">
-        <v>202201</v>
+        <v>2022</v>
       </c>
       <c r="F9">
-        <v>2022</v>
-      </c>
-      <c r="G9">
         <v>3348200267</v>
       </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
       <c r="H9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>4313032500</v>
       </c>
       <c r="J9">
-        <v>4313032500</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9">
+        <v>245673155</v>
       </c>
       <c r="M9">
-        <v>245673155</v>
+        <v>454</v>
       </c>
       <c r="N9">
-        <v>454</v>
+        <v>553895</v>
       </c>
       <c r="O9">
-        <v>553895</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="P9">
-        <v>99.34999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>14.24</v>
+      </c>
+      <c r="S9">
+        <v>23.82</v>
+      </c>
+      <c r="T9">
+        <v>26.59</v>
+      </c>
+      <c r="U9">
+        <v>12.04</v>
+      </c>
+      <c r="V9">
+        <v>22.66</v>
+      </c>
+      <c r="W9">
         <v>0.65</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>14.24</v>
-      </c>
-      <c r="T9">
-        <v>23.82</v>
-      </c>
-      <c r="U9">
-        <v>26.59</v>
-      </c>
-      <c r="V9">
-        <v>12.04</v>
-      </c>
-      <c r="W9">
-        <v>22.66</v>
-      </c>
       <c r="X9">
-        <v>0.65</v>
+        <v>28.72</v>
       </c>
       <c r="Y9">
-        <v>28.72</v>
+        <v>40.77</v>
       </c>
       <c r="Z9">
-        <v>40.77</v>
+        <v>30.51</v>
       </c>
       <c r="AA9">
-        <v>30.51</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2231,37 +1790,37 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>12.78</v>
       </c>
       <c r="AF9">
-        <v>12.78</v>
+        <v>2.15</v>
       </c>
       <c r="AG9">
-        <v>2.15</v>
+        <v>6.63</v>
       </c>
       <c r="AH9">
-        <v>6.63</v>
+        <v>7.87</v>
       </c>
       <c r="AI9">
-        <v>7.87</v>
+        <v>23.67</v>
       </c>
       <c r="AJ9">
-        <v>23.67</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AL9">
-        <v>8.9</v>
+        <v>10.3</v>
       </c>
       <c r="AM9">
-        <v>10.3</v>
+        <v>20.4</v>
       </c>
       <c r="AN9">
-        <v>20.4</v>
+        <v>7.3</v>
       </c>
       <c r="AO9">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -2270,147 +1829,102 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="AS9">
-        <v>13.2</v>
+        <v>56.39</v>
       </c>
       <c r="AT9">
-        <v>56.39</v>
+        <v>27.59</v>
       </c>
       <c r="AU9">
-        <v>27.59</v>
+        <v>0.32</v>
       </c>
       <c r="AV9">
-        <v>0.32</v>
-      </c>
-      <c r="AW9">
         <v>2.5</v>
       </c>
-      <c r="AX9">
-        <v>44.06</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>2.95</v>
-      </c>
-      <c r="BA9">
-        <v>14.4</v>
-      </c>
-      <c r="BB9">
-        <v>36.31</v>
-      </c>
-      <c r="BC9">
-        <v>2.28</v>
-      </c>
-      <c r="BD9">
-        <v>0.18</v>
-      </c>
-      <c r="BE9">
-        <v>6.31</v>
-      </c>
-      <c r="BF9">
-        <v>15.3</v>
-      </c>
-      <c r="BG9">
-        <v>1.36</v>
-      </c>
-      <c r="BH9">
-        <v>11.66</v>
-      </c>
-      <c r="BI9">
-        <v>18.18</v>
-      </c>
-      <c r="BJ9">
-        <v>39</v>
-      </c>
-      <c r="BK9">
-        <v>34.1</v>
-      </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:48">
       <c r="A10" s="1">
         <v>35210</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>202202</v>
       </c>
       <c r="E10">
-        <v>202202</v>
+        <v>2022</v>
       </c>
       <c r="F10">
-        <v>2022</v>
-      </c>
-      <c r="G10">
         <v>3348200267</v>
       </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
       <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>4313032500</v>
       </c>
       <c r="J10">
-        <v>4313032500</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10">
+        <v>189160690</v>
       </c>
       <c r="M10">
-        <v>189160690</v>
+        <v>333</v>
       </c>
       <c r="N10">
-        <v>333</v>
+        <v>557285</v>
       </c>
       <c r="O10">
-        <v>557285</v>
+        <v>99.83</v>
       </c>
       <c r="P10">
-        <v>99.83</v>
+        <v>0.17</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>26.49</v>
+      </c>
+      <c r="S10">
+        <v>4.03</v>
+      </c>
+      <c r="T10">
+        <v>3.03</v>
+      </c>
+      <c r="U10">
+        <v>42.05</v>
+      </c>
+      <c r="V10">
+        <v>24.23</v>
+      </c>
+      <c r="W10">
         <v>0.17</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>26.49</v>
-      </c>
-      <c r="T10">
-        <v>4.03</v>
-      </c>
-      <c r="U10">
-        <v>3.03</v>
-      </c>
-      <c r="V10">
-        <v>42.05</v>
-      </c>
-      <c r="W10">
-        <v>24.23</v>
-      </c>
       <c r="X10">
-        <v>0.17</v>
+        <v>11.17</v>
       </c>
       <c r="Y10">
-        <v>11.17</v>
+        <v>42.45</v>
       </c>
       <c r="Z10">
-        <v>42.45</v>
+        <v>46.38</v>
       </c>
       <c r="AA10">
-        <v>46.38</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2422,186 +1936,141 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>4.39</v>
+      </c>
+      <c r="AH10">
+        <v>14.49</v>
+      </c>
+      <c r="AI10">
+        <v>14.05</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>40.1</v>
+      </c>
+      <c r="AM10">
+        <v>3.7</v>
+      </c>
+      <c r="AN10">
+        <v>22.89</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
         <v>0.36</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>4.39</v>
-      </c>
-      <c r="AI10">
-        <v>14.49</v>
-      </c>
-      <c r="AJ10">
-        <v>14.05</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>40.1</v>
-      </c>
-      <c r="AN10">
-        <v>3.7</v>
-      </c>
-      <c r="AO10">
-        <v>22.89</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
       <c r="AQ10">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AS10">
-        <v>3.96</v>
+        <v>40.38</v>
       </c>
       <c r="AT10">
-        <v>40.38</v>
+        <v>11.79</v>
       </c>
       <c r="AU10">
-        <v>11.79</v>
+        <v>42.55</v>
       </c>
       <c r="AV10">
-        <v>42.55</v>
-      </c>
-      <c r="AW10">
         <v>0.96</v>
       </c>
-      <c r="AX10">
-        <v>14.34</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0.85</v>
-      </c>
-      <c r="BA10">
-        <v>49.79</v>
-      </c>
-      <c r="BB10">
-        <v>20.55</v>
-      </c>
-      <c r="BC10">
-        <v>14.46</v>
-      </c>
-      <c r="BD10">
-        <v>2.85</v>
-      </c>
-      <c r="BE10">
-        <v>0.36</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>1.15</v>
-      </c>
-      <c r="BH10">
-        <v>24.82</v>
-      </c>
-      <c r="BI10">
-        <v>33.97</v>
-      </c>
-      <c r="BJ10">
-        <v>17.9</v>
-      </c>
-      <c r="BK10">
-        <v>35.7</v>
-      </c>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:48">
       <c r="A11" s="1">
         <v>36591</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>202203</v>
       </c>
       <c r="E11">
-        <v>202203</v>
+        <v>2022</v>
       </c>
       <c r="F11">
-        <v>2022</v>
-      </c>
-      <c r="G11">
         <v>3348200267</v>
       </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
       <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>4313032500</v>
       </c>
       <c r="J11">
-        <v>4313032500</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11">
+        <v>280332406</v>
       </c>
       <c r="M11">
-        <v>280332406</v>
+        <v>409</v>
       </c>
       <c r="N11">
-        <v>409</v>
+        <v>699407</v>
       </c>
       <c r="O11">
-        <v>699407</v>
+        <v>99.37</v>
       </c>
       <c r="P11">
-        <v>99.37</v>
+        <v>0.63</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>16.54</v>
+      </c>
+      <c r="S11">
+        <v>7.9</v>
+      </c>
+      <c r="T11">
+        <v>32.61</v>
+      </c>
+      <c r="U11">
+        <v>7.52</v>
+      </c>
+      <c r="V11">
+        <v>34.81</v>
+      </c>
+      <c r="W11">
         <v>0.63</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>16.54</v>
-      </c>
-      <c r="T11">
-        <v>7.9</v>
-      </c>
-      <c r="U11">
-        <v>32.61</v>
-      </c>
-      <c r="V11">
-        <v>7.52</v>
-      </c>
-      <c r="W11">
-        <v>34.81</v>
-      </c>
       <c r="X11">
-        <v>0.63</v>
+        <v>14.45</v>
       </c>
       <c r="Y11">
-        <v>14.45</v>
+        <v>78.22</v>
       </c>
       <c r="Z11">
-        <v>78.22</v>
+        <v>7.33</v>
       </c>
       <c r="AA11">
-        <v>7.33</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2613,37 +2082,37 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AF11">
-        <v>0.78</v>
+        <v>1.33</v>
       </c>
       <c r="AG11">
-        <v>1.33</v>
+        <v>25.66</v>
       </c>
       <c r="AH11">
-        <v>25.66</v>
+        <v>13.85</v>
       </c>
       <c r="AI11">
-        <v>13.85</v>
+        <v>1.65</v>
       </c>
       <c r="AJ11">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>9.67</v>
       </c>
       <c r="AL11">
-        <v>9.67</v>
+        <v>16.32</v>
       </c>
       <c r="AM11">
-        <v>16.32</v>
+        <v>11.59</v>
       </c>
       <c r="AN11">
-        <v>11.59</v>
+        <v>19.15</v>
       </c>
       <c r="AO11">
-        <v>19.15</v>
+        <v>0</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -2652,147 +2121,102 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AS11">
-        <v>4.6</v>
+        <v>42.64</v>
       </c>
       <c r="AT11">
-        <v>42.64</v>
+        <v>39.25</v>
       </c>
       <c r="AU11">
-        <v>39.25</v>
+        <v>4.58</v>
       </c>
       <c r="AV11">
-        <v>4.58</v>
-      </c>
-      <c r="AW11">
         <v>8.93</v>
       </c>
-      <c r="AX11">
-        <v>20.88</v>
-      </c>
-      <c r="AY11">
-        <v>0.22</v>
-      </c>
-      <c r="AZ11">
-        <v>10.3</v>
-      </c>
-      <c r="BA11">
-        <v>28.47</v>
-      </c>
-      <c r="BB11">
-        <v>34.67</v>
-      </c>
-      <c r="BC11">
-        <v>5.45</v>
-      </c>
-      <c r="BD11">
-        <v>20.53</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0.78</v>
-      </c>
-      <c r="BG11">
-        <v>1.48</v>
-      </c>
-      <c r="BH11">
-        <v>24.38</v>
-      </c>
-      <c r="BI11">
-        <v>30.82</v>
-      </c>
-      <c r="BJ11">
-        <v>27.5</v>
-      </c>
-      <c r="BK11">
-        <v>32.5</v>
-      </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:48">
       <c r="A12" s="1">
         <v>37968</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>202204</v>
       </c>
       <c r="E12">
-        <v>202204</v>
+        <v>2022</v>
       </c>
       <c r="F12">
-        <v>2022</v>
-      </c>
-      <c r="G12">
         <v>3348200267</v>
       </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
       <c r="H12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>4313032500</v>
       </c>
       <c r="J12">
-        <v>4313032500</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12">
+        <v>104231698</v>
       </c>
       <c r="M12">
-        <v>104231698</v>
+        <v>361</v>
       </c>
       <c r="N12">
-        <v>361</v>
+        <v>293718</v>
       </c>
       <c r="O12">
-        <v>293718</v>
+        <v>91.09</v>
       </c>
       <c r="P12">
-        <v>91.09</v>
+        <v>8.91</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>25.8</v>
+      </c>
+      <c r="S12">
+        <v>9.44</v>
+      </c>
+      <c r="T12">
+        <v>11.28</v>
+      </c>
+      <c r="U12">
+        <v>5.8</v>
+      </c>
+      <c r="V12">
+        <v>38.77</v>
+      </c>
+      <c r="W12">
         <v>8.91</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>25.8</v>
-      </c>
-      <c r="T12">
-        <v>9.44</v>
-      </c>
-      <c r="U12">
-        <v>11.28</v>
-      </c>
-      <c r="V12">
-        <v>5.8</v>
-      </c>
-      <c r="W12">
-        <v>38.77</v>
-      </c>
       <c r="X12">
-        <v>8.91</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y12">
-        <v>9.199999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="Z12">
-        <v>68.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA12">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2804,37 +2228,37 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AF12">
-        <v>0.01</v>
+        <v>2.66</v>
       </c>
       <c r="AG12">
-        <v>2.66</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AH12">
-        <v>9.789999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="AI12">
-        <v>1.85</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AJ12">
-        <v>9.390000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="AM12">
-        <v>15.9</v>
+        <v>23.14</v>
       </c>
       <c r="AN12">
-        <v>23.14</v>
+        <v>37.28</v>
       </c>
       <c r="AO12">
-        <v>37.28</v>
+        <v>0</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -2843,147 +2267,102 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>14.03</v>
       </c>
       <c r="AS12">
-        <v>14.03</v>
+        <v>19.88</v>
       </c>
       <c r="AT12">
-        <v>19.88</v>
+        <v>29.39</v>
       </c>
       <c r="AU12">
-        <v>29.39</v>
+        <v>16.89</v>
       </c>
       <c r="AV12">
-        <v>16.89</v>
-      </c>
-      <c r="AW12">
         <v>19.82</v>
       </c>
-      <c r="AX12">
-        <v>7.44</v>
-      </c>
-      <c r="AY12">
-        <v>10.61</v>
-      </c>
-      <c r="AZ12">
-        <v>1.13</v>
-      </c>
-      <c r="BA12">
-        <v>32.37</v>
-      </c>
-      <c r="BB12">
-        <v>32.39</v>
-      </c>
-      <c r="BC12">
-        <v>16.07</v>
-      </c>
-      <c r="BD12">
-        <v>0.06</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>1.08</v>
-      </c>
-      <c r="BG12">
-        <v>3.43</v>
-      </c>
-      <c r="BH12">
-        <v>33.38</v>
-      </c>
-      <c r="BI12">
-        <v>43.4</v>
-      </c>
-      <c r="BJ12">
-        <v>32.4</v>
-      </c>
-      <c r="BK12">
-        <v>45.9</v>
-      </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:48">
       <c r="A13" s="1">
         <v>39357</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>202205</v>
       </c>
       <c r="E13">
-        <v>202205</v>
+        <v>2022</v>
       </c>
       <c r="F13">
-        <v>2022</v>
-      </c>
-      <c r="G13">
         <v>3348200267</v>
       </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
       <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>4313032500</v>
       </c>
       <c r="J13">
-        <v>4313032500</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13">
+        <v>113042249</v>
       </c>
       <c r="M13">
-        <v>113042249</v>
+        <v>291</v>
       </c>
       <c r="N13">
-        <v>291</v>
+        <v>371818</v>
       </c>
       <c r="O13">
-        <v>371818</v>
+        <v>97.62</v>
       </c>
       <c r="P13">
-        <v>97.62</v>
+        <v>2.38</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>41.92</v>
+      </c>
+      <c r="S13">
+        <v>24.04</v>
+      </c>
+      <c r="T13">
+        <v>16.11</v>
+      </c>
+      <c r="U13">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="V13">
+        <v>6.1</v>
+      </c>
+      <c r="W13">
         <v>2.38</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>41.92</v>
-      </c>
-      <c r="T13">
-        <v>24.04</v>
-      </c>
-      <c r="U13">
-        <v>16.11</v>
-      </c>
-      <c r="V13">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="W13">
-        <v>6.1</v>
-      </c>
       <c r="X13">
-        <v>2.38</v>
+        <v>9.4</v>
       </c>
       <c r="Y13">
-        <v>9.4</v>
+        <v>69.98</v>
       </c>
       <c r="Z13">
-        <v>69.98</v>
+        <v>20.62</v>
       </c>
       <c r="AA13">
-        <v>20.62</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2998,34 +2377,34 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG13">
-        <v>2.07</v>
+        <v>34.21</v>
       </c>
       <c r="AH13">
-        <v>34.21</v>
+        <v>16.26</v>
       </c>
       <c r="AI13">
-        <v>16.26</v>
+        <v>25.27</v>
       </c>
       <c r="AJ13">
-        <v>25.27</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>7.66</v>
       </c>
       <c r="AL13">
-        <v>7.66</v>
+        <v>0.02</v>
       </c>
       <c r="AM13">
-        <v>0.02</v>
+        <v>5.19</v>
       </c>
       <c r="AN13">
-        <v>5.19</v>
+        <v>9.32</v>
       </c>
       <c r="AO13">
-        <v>9.32</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -3034,64 +2413,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="AS13">
-        <v>6.18</v>
+        <v>21.11</v>
       </c>
       <c r="AT13">
-        <v>21.11</v>
+        <v>33.7</v>
       </c>
       <c r="AU13">
-        <v>33.7</v>
+        <v>32.33</v>
       </c>
       <c r="AV13">
-        <v>32.33</v>
-      </c>
-      <c r="AW13">
         <v>6.67</v>
-      </c>
-      <c r="AX13">
-        <v>13.88</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>2.32</v>
-      </c>
-      <c r="BA13">
-        <v>35.07</v>
-      </c>
-      <c r="BB13">
-        <v>46.59</v>
-      </c>
-      <c r="BC13">
-        <v>2.14</v>
-      </c>
-      <c r="BD13">
-        <v>1.53</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>1.86</v>
-      </c>
-      <c r="BG13">
-        <v>2.04</v>
-      </c>
-      <c r="BH13">
-        <v>10.87</v>
-      </c>
-      <c r="BI13">
-        <v>32.54</v>
-      </c>
-      <c r="BJ13">
-        <v>28.6</v>
-      </c>
-      <c r="BK13">
-        <v>28.6</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4313032500.xlsx
+++ b/시장분석용_정보/시장분석용_4313032500.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>24179</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202106</v>
@@ -696,10 +600,10 @@
         <v>3348200267</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4313032500</v>
@@ -708,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>13430930</v>
@@ -720,117 +624,69 @@
         <v>50144</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="R2">
-        <v>30.75</v>
+        <v>6.88</v>
       </c>
       <c r="S2">
-        <v>2.19</v>
+        <v>14.55</v>
       </c>
       <c r="T2">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>60.06</v>
+        <v>64.73</v>
       </c>
       <c r="V2">
-        <v>5.2</v>
+        <v>6.04</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X2">
-        <v>15.54</v>
+        <v>1.06</v>
       </c>
       <c r="Y2">
-        <v>25.43</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>59.03</v>
+        <v>0.2</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="AE2">
-        <v>0.2</v>
+        <v>3.34</v>
       </c>
       <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>4.56</v>
-      </c>
-      <c r="AH2">
-        <v>6.88</v>
-      </c>
-      <c r="AI2">
-        <v>14.55</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>64.73</v>
-      </c>
-      <c r="AL2">
-        <v>6.04</v>
-      </c>
-      <c r="AM2">
-        <v>1.98</v>
-      </c>
-      <c r="AN2">
-        <v>1.06</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0.2</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>4.84</v>
-      </c>
-      <c r="AS2">
-        <v>84.79000000000001</v>
-      </c>
-      <c r="AT2">
-        <v>5.22</v>
-      </c>
-      <c r="AU2">
-        <v>3.34</v>
-      </c>
-      <c r="AV2">
         <v>1.61</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>25550</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202107</v>
@@ -842,10 +698,10 @@
         <v>3348200267</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4313032500</v>
@@ -854,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>80609434</v>
@@ -866,117 +722,69 @@
         <v>83651</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>9.1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>8.81</v>
       </c>
       <c r="R3">
-        <v>23.93</v>
+        <v>24.48</v>
       </c>
       <c r="S3">
-        <v>4.52</v>
+        <v>4.03</v>
       </c>
       <c r="T3">
-        <v>4.26</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>6.8</v>
+        <v>4.04</v>
       </c>
       <c r="V3">
-        <v>60.49</v>
+        <v>39.73</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X3">
-        <v>5.44</v>
+        <v>8.17</v>
       </c>
       <c r="Y3">
-        <v>42.25</v>
+        <v>1.93</v>
       </c>
       <c r="Z3">
-        <v>52.31</v>
+        <v>1.28</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>72.3</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="AE3">
-        <v>9.1</v>
+        <v>1.64</v>
       </c>
       <c r="AF3">
-        <v>0.02</v>
-      </c>
-      <c r="AG3">
-        <v>8.81</v>
-      </c>
-      <c r="AH3">
-        <v>24.48</v>
-      </c>
-      <c r="AI3">
-        <v>4.03</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>4.04</v>
-      </c>
-      <c r="AL3">
-        <v>39.73</v>
-      </c>
-      <c r="AM3">
-        <v>1.62</v>
-      </c>
-      <c r="AN3">
-        <v>8.17</v>
-      </c>
-      <c r="AO3">
-        <v>1.93</v>
-      </c>
-      <c r="AP3">
-        <v>1.28</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>10.9</v>
-      </c>
-      <c r="AS3">
-        <v>72.3</v>
-      </c>
-      <c r="AT3">
-        <v>10.88</v>
-      </c>
-      <c r="AU3">
-        <v>1.64</v>
-      </c>
-      <c r="AV3">
         <v>1.08</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>26925</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202108</v>
@@ -988,10 +796,10 @@
         <v>3348200267</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4313032500</v>
@@ -1000,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>120014747</v>
@@ -1012,117 +820,69 @@
         <v>121757</v>
       </c>
       <c r="O4">
-        <v>94.7</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>5.3</v>
+        <v>0.35</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="R4">
-        <v>16.82</v>
+        <v>23.33</v>
       </c>
       <c r="S4">
-        <v>15.76</v>
+        <v>21.56</v>
       </c>
       <c r="T4">
-        <v>8.359999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U4">
-        <v>4.53</v>
+        <v>4.93</v>
       </c>
       <c r="V4">
-        <v>54.53</v>
+        <v>17.95</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>12.26</v>
       </c>
       <c r="X4">
-        <v>20.7</v>
+        <v>16.96</v>
       </c>
       <c r="Y4">
-        <v>41.95</v>
+        <v>0.23</v>
       </c>
       <c r="Z4">
-        <v>37.36</v>
+        <v>4.67</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>52.08</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>19.38</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AF4">
-        <v>0.35</v>
-      </c>
-      <c r="AG4">
-        <v>2.59</v>
-      </c>
-      <c r="AH4">
-        <v>23.33</v>
-      </c>
-      <c r="AI4">
-        <v>21.56</v>
-      </c>
-      <c r="AJ4">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AK4">
-        <v>4.93</v>
-      </c>
-      <c r="AL4">
-        <v>17.95</v>
-      </c>
-      <c r="AM4">
-        <v>12.26</v>
-      </c>
-      <c r="AN4">
-        <v>16.96</v>
-      </c>
-      <c r="AO4">
-        <v>0.23</v>
-      </c>
-      <c r="AP4">
-        <v>4.67</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>4.97</v>
-      </c>
-      <c r="AS4">
-        <v>52.08</v>
-      </c>
-      <c r="AT4">
-        <v>19.38</v>
-      </c>
-      <c r="AU4">
-        <v>6.8</v>
-      </c>
-      <c r="AV4">
         <v>11.86</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>28295</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202109</v>
@@ -1134,10 +894,10 @@
         <v>3348200267</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4313032500</v>
@@ -1146,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>145225494</v>
@@ -1158,117 +918,69 @@
         <v>194520</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>17.02</v>
       </c>
       <c r="R5">
-        <v>7.61</v>
+        <v>13.27</v>
       </c>
       <c r="S5">
-        <v>38.12</v>
+        <v>14.09</v>
       </c>
       <c r="T5">
-        <v>31.82</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>9.289999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="V5">
-        <v>13.16</v>
+        <v>30.28</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>7.98</v>
       </c>
       <c r="X5">
-        <v>8.44</v>
+        <v>12.43</v>
       </c>
       <c r="Y5">
-        <v>54.82</v>
+        <v>0.03</v>
       </c>
       <c r="Z5">
-        <v>36.74</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>18.68</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>61.39</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>9.35</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>5.82</v>
       </c>
       <c r="AF5">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AG5">
-        <v>17.02</v>
-      </c>
-      <c r="AH5">
-        <v>13.27</v>
-      </c>
-      <c r="AI5">
-        <v>14.09</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>4.12</v>
-      </c>
-      <c r="AL5">
-        <v>30.28</v>
-      </c>
-      <c r="AM5">
-        <v>7.98</v>
-      </c>
-      <c r="AN5">
-        <v>12.43</v>
-      </c>
-      <c r="AO5">
-        <v>0.03</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>18.68</v>
-      </c>
-      <c r="AS5">
-        <v>61.39</v>
-      </c>
-      <c r="AT5">
-        <v>9.35</v>
-      </c>
-      <c r="AU5">
-        <v>5.82</v>
-      </c>
-      <c r="AV5">
         <v>4.73</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>29675</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202110</v>
@@ -1280,10 +992,10 @@
         <v>3348200267</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4313032500</v>
@@ -1292,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>191583816</v>
@@ -1304,117 +1016,69 @@
         <v>265526</v>
       </c>
       <c r="O6">
-        <v>99.81</v>
+        <v>0.53</v>
       </c>
       <c r="P6">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>7.52</v>
       </c>
       <c r="R6">
-        <v>10.43</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="S6">
-        <v>24.48</v>
+        <v>3.98</v>
       </c>
       <c r="T6">
-        <v>3.66</v>
+        <v>2.69</v>
       </c>
       <c r="U6">
-        <v>30.96</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>30.42</v>
+        <v>36.17</v>
       </c>
       <c r="W6">
-        <v>0.05</v>
+        <v>24.43</v>
       </c>
       <c r="X6">
-        <v>3.2</v>
+        <v>16.29</v>
       </c>
       <c r="Y6">
-        <v>68.83</v>
+        <v>0.24</v>
       </c>
       <c r="Z6">
-        <v>27.96</v>
+        <v>0.01</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>31.74</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AE6">
-        <v>0.53</v>
+        <v>52.43</v>
       </c>
       <c r="AF6">
-        <v>0.11</v>
-      </c>
-      <c r="AG6">
-        <v>7.52</v>
-      </c>
-      <c r="AH6">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AI6">
-        <v>3.98</v>
-      </c>
-      <c r="AJ6">
-        <v>2.69</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>36.17</v>
-      </c>
-      <c r="AM6">
-        <v>24.43</v>
-      </c>
-      <c r="AN6">
-        <v>16.29</v>
-      </c>
-      <c r="AO6">
-        <v>0.24</v>
-      </c>
-      <c r="AP6">
-        <v>0.01</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>5.01</v>
-      </c>
-      <c r="AS6">
-        <v>31.74</v>
-      </c>
-      <c r="AT6">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="AU6">
-        <v>52.43</v>
-      </c>
-      <c r="AV6">
         <v>1.43</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>31054</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202111</v>
@@ -1426,10 +1090,10 @@
         <v>3348200267</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4313032500</v>
@@ -1438,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>120318780</v>
@@ -1450,117 +1114,69 @@
         <v>240662</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>13.42</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>20.93</v>
       </c>
       <c r="R7">
-        <v>27.58</v>
+        <v>15.57</v>
       </c>
       <c r="S7">
-        <v>27.96</v>
+        <v>3.54</v>
       </c>
       <c r="T7">
-        <v>11.19</v>
+        <v>0.02</v>
       </c>
       <c r="U7">
-        <v>3.47</v>
+        <v>0.11</v>
       </c>
       <c r="V7">
-        <v>29.8</v>
+        <v>0.87</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>6.12</v>
       </c>
       <c r="X7">
-        <v>10.44</v>
+        <v>30.44</v>
       </c>
       <c r="Y7">
-        <v>55.02</v>
+        <v>0.09</v>
       </c>
       <c r="Z7">
-        <v>34.54</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>34.06</v>
       </c>
       <c r="AE7">
-        <v>13.42</v>
+        <v>3.68</v>
       </c>
       <c r="AF7">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AG7">
-        <v>20.93</v>
-      </c>
-      <c r="AH7">
-        <v>15.57</v>
-      </c>
-      <c r="AI7">
-        <v>3.54</v>
-      </c>
-      <c r="AJ7">
-        <v>0.02</v>
-      </c>
-      <c r="AK7">
-        <v>0.11</v>
-      </c>
-      <c r="AL7">
-        <v>0.87</v>
-      </c>
-      <c r="AM7">
-        <v>6.12</v>
-      </c>
-      <c r="AN7">
-        <v>30.44</v>
-      </c>
-      <c r="AO7">
-        <v>0.09</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="AS7">
-        <v>27</v>
-      </c>
-      <c r="AT7">
-        <v>34.06</v>
-      </c>
-      <c r="AU7">
-        <v>3.68</v>
-      </c>
-      <c r="AV7">
         <v>26.06</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>32441</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202112</v>
@@ -1572,10 +1188,10 @@
         <v>3348200267</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4313032500</v>
@@ -1584,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>161332540</v>
@@ -1596,117 +1212,69 @@
         <v>360261</v>
       </c>
       <c r="O8">
-        <v>99.91</v>
+        <v>3.86</v>
       </c>
       <c r="P8">
-        <v>0.09</v>
+        <v>0.55</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="R8">
-        <v>18.52</v>
+        <v>27.48</v>
       </c>
       <c r="S8">
-        <v>6.32</v>
+        <v>8.01</v>
       </c>
       <c r="T8">
-        <v>24.56</v>
+        <v>0.41</v>
       </c>
       <c r="U8">
-        <v>4.62</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>45.9</v>
+        <v>3.48</v>
       </c>
       <c r="W8">
-        <v>0.09</v>
+        <v>21.91</v>
       </c>
       <c r="X8">
-        <v>23.79</v>
+        <v>26.26</v>
       </c>
       <c r="Y8">
-        <v>52.56</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>23.65</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>7.81</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>22.07</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>48.35</v>
       </c>
       <c r="AE8">
-        <v>3.86</v>
+        <v>15.04</v>
       </c>
       <c r="AF8">
-        <v>0.55</v>
-      </c>
-      <c r="AG8">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AH8">
-        <v>27.48</v>
-      </c>
-      <c r="AI8">
-        <v>8.01</v>
-      </c>
-      <c r="AJ8">
-        <v>0.41</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>3.48</v>
-      </c>
-      <c r="AM8">
-        <v>21.91</v>
-      </c>
-      <c r="AN8">
-        <v>26.26</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>7.81</v>
-      </c>
-      <c r="AS8">
-        <v>22.07</v>
-      </c>
-      <c r="AT8">
-        <v>48.35</v>
-      </c>
-      <c r="AU8">
-        <v>15.04</v>
-      </c>
-      <c r="AV8">
         <v>6.72</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>33827</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202201</v>
@@ -1718,10 +1286,10 @@
         <v>3348200267</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4313032500</v>
@@ -1730,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>245673155</v>
@@ -1742,117 +1310,69 @@
         <v>553895</v>
       </c>
       <c r="O9">
-        <v>99.34999999999999</v>
+        <v>12.78</v>
       </c>
       <c r="P9">
-        <v>0.65</v>
+        <v>2.15</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>6.63</v>
       </c>
       <c r="R9">
-        <v>14.24</v>
+        <v>7.87</v>
       </c>
       <c r="S9">
-        <v>23.82</v>
+        <v>23.67</v>
       </c>
       <c r="T9">
-        <v>26.59</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>12.04</v>
+        <v>8.9</v>
       </c>
       <c r="V9">
-        <v>22.66</v>
+        <v>10.3</v>
       </c>
       <c r="W9">
-        <v>0.65</v>
+        <v>20.4</v>
       </c>
       <c r="X9">
-        <v>28.72</v>
+        <v>7.3</v>
       </c>
       <c r="Y9">
-        <v>40.77</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>30.51</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>56.39</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>27.59</v>
       </c>
       <c r="AE9">
-        <v>12.78</v>
+        <v>0.32</v>
       </c>
       <c r="AF9">
-        <v>2.15</v>
-      </c>
-      <c r="AG9">
-        <v>6.63</v>
-      </c>
-      <c r="AH9">
-        <v>7.87</v>
-      </c>
-      <c r="AI9">
-        <v>23.67</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>8.9</v>
-      </c>
-      <c r="AL9">
-        <v>10.3</v>
-      </c>
-      <c r="AM9">
-        <v>20.4</v>
-      </c>
-      <c r="AN9">
-        <v>7.3</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>13.2</v>
-      </c>
-      <c r="AS9">
-        <v>56.39</v>
-      </c>
-      <c r="AT9">
-        <v>27.59</v>
-      </c>
-      <c r="AU9">
-        <v>0.32</v>
-      </c>
-      <c r="AV9">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>35210</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202202</v>
@@ -1864,10 +1384,10 @@
         <v>3348200267</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4313032500</v>
@@ -1876,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>189160690</v>
@@ -1888,117 +1408,69 @@
         <v>557285</v>
       </c>
       <c r="O10">
-        <v>99.83</v>
+        <v>0.36</v>
       </c>
       <c r="P10">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>4.39</v>
       </c>
       <c r="R10">
-        <v>26.49</v>
+        <v>14.49</v>
       </c>
       <c r="S10">
-        <v>4.03</v>
+        <v>14.05</v>
       </c>
       <c r="T10">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>42.05</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>24.23</v>
+        <v>40.1</v>
       </c>
       <c r="W10">
-        <v>0.17</v>
+        <v>3.7</v>
       </c>
       <c r="X10">
-        <v>11.17</v>
+        <v>22.89</v>
       </c>
       <c r="Y10">
-        <v>42.45</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>46.38</v>
+        <v>0.36</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>40.38</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>11.79</v>
       </c>
       <c r="AE10">
-        <v>0.36</v>
+        <v>42.55</v>
       </c>
       <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>4.39</v>
-      </c>
-      <c r="AH10">
-        <v>14.49</v>
-      </c>
-      <c r="AI10">
-        <v>14.05</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>40.1</v>
-      </c>
-      <c r="AM10">
-        <v>3.7</v>
-      </c>
-      <c r="AN10">
-        <v>22.89</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0.36</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>3.96</v>
-      </c>
-      <c r="AS10">
-        <v>40.38</v>
-      </c>
-      <c r="AT10">
-        <v>11.79</v>
-      </c>
-      <c r="AU10">
-        <v>42.55</v>
-      </c>
-      <c r="AV10">
         <v>0.96</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>36591</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202203</v>
@@ -2010,10 +1482,10 @@
         <v>3348200267</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4313032500</v>
@@ -2022,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>280332406</v>
@@ -2034,117 +1506,69 @@
         <v>699407</v>
       </c>
       <c r="O11">
-        <v>99.37</v>
+        <v>0.78</v>
       </c>
       <c r="P11">
-        <v>0.63</v>
+        <v>1.33</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>25.66</v>
       </c>
       <c r="R11">
-        <v>16.54</v>
+        <v>13.85</v>
       </c>
       <c r="S11">
-        <v>7.9</v>
+        <v>1.65</v>
       </c>
       <c r="T11">
-        <v>32.61</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>7.52</v>
+        <v>9.67</v>
       </c>
       <c r="V11">
-        <v>34.81</v>
+        <v>16.32</v>
       </c>
       <c r="W11">
-        <v>0.63</v>
+        <v>11.59</v>
       </c>
       <c r="X11">
-        <v>14.45</v>
+        <v>19.15</v>
       </c>
       <c r="Y11">
-        <v>78.22</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>7.33</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>42.64</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>39.25</v>
       </c>
       <c r="AE11">
-        <v>0.78</v>
+        <v>4.58</v>
       </c>
       <c r="AF11">
-        <v>1.33</v>
-      </c>
-      <c r="AG11">
-        <v>25.66</v>
-      </c>
-      <c r="AH11">
-        <v>13.85</v>
-      </c>
-      <c r="AI11">
-        <v>1.65</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>9.67</v>
-      </c>
-      <c r="AL11">
-        <v>16.32</v>
-      </c>
-      <c r="AM11">
-        <v>11.59</v>
-      </c>
-      <c r="AN11">
-        <v>19.15</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>4.6</v>
-      </c>
-      <c r="AS11">
-        <v>42.64</v>
-      </c>
-      <c r="AT11">
-        <v>39.25</v>
-      </c>
-      <c r="AU11">
-        <v>4.58</v>
-      </c>
-      <c r="AV11">
         <v>8.93</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>37968</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202204</v>
@@ -2156,10 +1580,10 @@
         <v>3348200267</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4313032500</v>
@@ -2168,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>104231698</v>
@@ -2180,117 +1604,69 @@
         <v>293718</v>
       </c>
       <c r="O12">
-        <v>91.09</v>
+        <v>0.01</v>
       </c>
       <c r="P12">
-        <v>8.91</v>
+        <v>2.66</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="R12">
-        <v>25.8</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>9.44</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="T12">
-        <v>11.28</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>38.77</v>
+        <v>15.9</v>
       </c>
       <c r="W12">
-        <v>8.91</v>
+        <v>23.14</v>
       </c>
       <c r="X12">
-        <v>9.199999999999999</v>
+        <v>37.28</v>
       </c>
       <c r="Y12">
-        <v>68.3</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>14.03</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>19.88</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>29.39</v>
       </c>
       <c r="AE12">
-        <v>0.01</v>
+        <v>16.89</v>
       </c>
       <c r="AF12">
-        <v>2.66</v>
-      </c>
-      <c r="AG12">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AH12">
-        <v>1.85</v>
-      </c>
-      <c r="AI12">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>15.9</v>
-      </c>
-      <c r="AM12">
-        <v>23.14</v>
-      </c>
-      <c r="AN12">
-        <v>37.28</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>14.03</v>
-      </c>
-      <c r="AS12">
-        <v>19.88</v>
-      </c>
-      <c r="AT12">
-        <v>29.39</v>
-      </c>
-      <c r="AU12">
-        <v>16.89</v>
-      </c>
-      <c r="AV12">
         <v>19.82</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>39357</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202205</v>
@@ -2302,10 +1678,10 @@
         <v>3348200267</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4313032500</v>
@@ -2314,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>113042249</v>
@@ -2326,105 +1702,57 @@
         <v>371818</v>
       </c>
       <c r="O13">
-        <v>97.62</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>34.21</v>
       </c>
       <c r="R13">
-        <v>41.92</v>
+        <v>16.26</v>
       </c>
       <c r="S13">
-        <v>24.04</v>
+        <v>25.27</v>
       </c>
       <c r="T13">
-        <v>16.11</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>9.449999999999999</v>
+        <v>7.66</v>
       </c>
       <c r="V13">
-        <v>6.1</v>
+        <v>0.02</v>
       </c>
       <c r="W13">
-        <v>2.38</v>
+        <v>5.19</v>
       </c>
       <c r="X13">
-        <v>9.4</v>
+        <v>9.32</v>
       </c>
       <c r="Y13">
-        <v>69.98</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>20.62</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>21.11</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>32.33</v>
       </c>
       <c r="AF13">
-        <v>2.07</v>
-      </c>
-      <c r="AG13">
-        <v>34.21</v>
-      </c>
-      <c r="AH13">
-        <v>16.26</v>
-      </c>
-      <c r="AI13">
-        <v>25.27</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>7.66</v>
-      </c>
-      <c r="AL13">
-        <v>0.02</v>
-      </c>
-      <c r="AM13">
-        <v>5.19</v>
-      </c>
-      <c r="AN13">
-        <v>9.32</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>6.18</v>
-      </c>
-      <c r="AS13">
-        <v>21.11</v>
-      </c>
-      <c r="AT13">
-        <v>33.7</v>
-      </c>
-      <c r="AU13">
-        <v>32.33</v>
-      </c>
-      <c r="AV13">
         <v>6.67</v>
       </c>
     </row>
